--- a/Clases.xlsx
+++ b/Clases.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\erica\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\erica\Desktop\Proyectos en Git\Gestor_Deposito_v1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{865E2520-DB37-4671-89BD-A7DAA01ED385}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB2C106C-E6FA-4F31-864E-E20469835D0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="19416" windowHeight="10296" xr2:uid="{913C2AA9-8ADD-4249-9EFE-7F7085125128}"/>
+    <workbookView xWindow="25176" yWindow="1236" windowWidth="17280" windowHeight="8880" xr2:uid="{913C2AA9-8ADD-4249-9EFE-7F7085125128}"/>
   </bookViews>
   <sheets>
     <sheet name="GENERAL" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="103">
   <si>
     <t>CLASS</t>
   </si>
@@ -86,9 +86,6 @@
     <t>PATENTE</t>
   </si>
   <si>
-    <t>AYUDANTE</t>
-  </si>
-  <si>
     <t>CAPACIDAD</t>
   </si>
   <si>
@@ -167,30 +164,15 @@
     <t>ID</t>
   </si>
   <si>
-    <t>CONTACTO (TELÉFONO, EMAIL)</t>
-  </si>
-  <si>
     <t>TIPO (RE, ETC)</t>
   </si>
   <si>
-    <t>HISTORIAL ENCOMIENDAS</t>
-  </si>
-  <si>
     <t>ACLARACIONES/PREFERENCIAS</t>
   </si>
   <si>
     <t>MARCA / MODELO</t>
   </si>
   <si>
-    <t>LEGAJO / DNI CHOFER ASIGNADO</t>
-  </si>
-  <si>
-    <t>INSTRUCCIONES DE ENTREGA</t>
-  </si>
-  <si>
-    <t>HISTORIAL DE ENCOMIENDAS</t>
-  </si>
-  <si>
     <t>SYSADMIN</t>
   </si>
   <si>
@@ -306,6 +288,63 @@
   </si>
   <si>
     <t>DETALLE</t>
+  </si>
+  <si>
+    <t>TELEFONO</t>
+  </si>
+  <si>
+    <t>MAIL</t>
+  </si>
+  <si>
+    <t>_Separe telefono y mail en dos prop</t>
+  </si>
+  <si>
+    <t>_ + prop ID</t>
+  </si>
+  <si>
+    <t>_ - historial Encomiendas</t>
+  </si>
+  <si>
+    <t>_ - instrucciones de entrega</t>
+  </si>
+  <si>
+    <t>_ - prop chofer asignado</t>
+  </si>
+  <si>
+    <t>_ -  prop ayudante</t>
+  </si>
+  <si>
+    <t>_ +  prop taraMaxima</t>
+  </si>
+  <si>
+    <t>_ - prop historial de de encomiendas</t>
+  </si>
+  <si>
+    <t>_ -  prop tipo.</t>
+  </si>
+  <si>
+    <t>_ + Ref a la clase tipocliente</t>
+  </si>
+  <si>
+    <t>_ Separe la prop marca y modelo</t>
+  </si>
+  <si>
+    <t>AUDITOR</t>
+  </si>
+  <si>
+    <t>_ + prop legajoAyudante</t>
+  </si>
+  <si>
+    <t>_ + Pprop Estado</t>
+  </si>
+  <si>
+    <t>_ + Prop Bultos</t>
+  </si>
+  <si>
+    <t>_ - Encomienda Asociada</t>
+  </si>
+  <si>
+    <t>Tenia pensado eliminarlo, y podriamos poner todo en remito.</t>
   </si>
 </sst>
 </file>
@@ -343,7 +382,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -374,12 +413,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -502,7 +535,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -514,18 +547,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -538,20 +583,29 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -874,21 +928,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37B31E45-C14C-4BCA-AA3E-67628A999E42}">
-  <dimension ref="D1:K77"/>
+  <dimension ref="D1:I77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="4" max="4" width="13.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="38.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="55.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.109375" customWidth="1"/>
+    <col min="8" max="8" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="55.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D1" s="3" t="s">
         <v>0</v>
       </c>
@@ -896,610 +951,654 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D2" s="6" t="s">
-        <v>88</v>
+    <row r="2" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D2" s="7" t="s">
+        <v>82</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D3" s="7"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D3" s="8"/>
       <c r="E3" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="4" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D4" s="13"/>
-      <c r="E4" s="14"/>
-    </row>
-    <row r="5" spans="4:11" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D4" s="5"/>
+      <c r="E4" s="6"/>
+    </row>
+    <row r="5" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D5" s="3" t="s">
         <v>0</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="H5" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="K5" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D6" s="6" t="s">
+      <c r="I5" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="4:9" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D6" s="7" t="s">
         <v>1</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="J6" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="H6" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="K6" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D7" s="7"/>
+      <c r="I6" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D7" s="8"/>
       <c r="E7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J7" s="7"/>
-      <c r="K7" s="2" t="s">
+      <c r="F7" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="H7" s="8"/>
+      <c r="I7" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D8" s="7"/>
+    <row r="8" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D8" s="8"/>
       <c r="E8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J8" s="7"/>
-      <c r="K8" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D9" s="7"/>
+      <c r="F8" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="H8" s="8"/>
+      <c r="I8" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D9" s="8"/>
       <c r="E9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J9" s="7"/>
-      <c r="K9" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="10" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D10" s="7"/>
+      <c r="F9" s="24"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D10" s="8"/>
       <c r="E10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J10" s="8"/>
-      <c r="K10" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="11" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D11" s="7"/>
+      <c r="F10" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="H10" s="11"/>
+      <c r="I10" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D11" s="8"/>
       <c r="E11" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D12" s="7"/>
+        <v>40</v>
+      </c>
+      <c r="F11" s="25"/>
+    </row>
+    <row r="12" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D12" s="8"/>
       <c r="E12" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D13" s="7"/>
+        <v>17</v>
+      </c>
+      <c r="F12" s="19"/>
+    </row>
+    <row r="13" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D13" s="8"/>
       <c r="E13" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D14" s="7"/>
-      <c r="E14" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F14" s="17"/>
-      <c r="J14" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="15" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D15" s="7"/>
+        <v>42</v>
+      </c>
+      <c r="F13" s="19"/>
+    </row>
+    <row r="14" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D14" s="8"/>
+      <c r="E14" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="F14" s="20"/>
+      <c r="H14" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D15" s="8"/>
       <c r="E15" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J15" s="9"/>
-      <c r="K15" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="16" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D16" s="7"/>
+        <v>85</v>
+      </c>
+      <c r="F15" s="19"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D16" s="8"/>
       <c r="E16" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F16" s="18"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="17" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D17" s="8"/>
-      <c r="E17" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="J17" s="9"/>
-      <c r="K17" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="18" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D18" s="13"/>
-      <c r="E18" s="14"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="19" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D19" s="15" t="s">
+      <c r="F16" s="21"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D17" s="11"/>
+      <c r="E17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" s="22"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D18" s="5"/>
+      <c r="E18" s="6"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D19" s="9" t="s">
         <v>14</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="20" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D20" s="16"/>
+      <c r="F19" s="23" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D20" s="10"/>
       <c r="E20" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H20" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D21" s="10"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H21" s="13"/>
+      <c r="I21" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D22" s="10"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="H22" s="13"/>
+      <c r="I22" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D23" s="10"/>
+      <c r="E23" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H23" s="13"/>
+      <c r="I23" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D24" s="10"/>
+      <c r="E24" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H24" s="13"/>
+      <c r="I24" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D25" s="5"/>
+      <c r="E25" s="6"/>
+    </row>
+    <row r="26" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D26" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F26" t="s">
+        <v>87</v>
+      </c>
+      <c r="H26" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D27" s="8"/>
+      <c r="E27" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F27" t="s">
+        <v>88</v>
+      </c>
+      <c r="H27" s="15"/>
+      <c r="I27" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="28" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D28" s="8"/>
+      <c r="E28" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F28" t="s">
+        <v>89</v>
+      </c>
+      <c r="H28" s="15"/>
+      <c r="I28" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="29" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D29" s="8"/>
+      <c r="E29" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H29" s="16"/>
+      <c r="I29" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="30" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D30" s="8"/>
+      <c r="E30" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D31" s="8"/>
+      <c r="E31" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H31" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="32" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D32" s="8"/>
+      <c r="E32" s="2"/>
+      <c r="H32" s="15"/>
+      <c r="I32" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="33" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D33" s="11"/>
+      <c r="E33" s="4"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="34" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D34" s="5"/>
+      <c r="E34" s="6"/>
+      <c r="H34" s="16"/>
+      <c r="I34" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="35" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D35" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="36" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D36" s="8"/>
+      <c r="E36" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H36" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="J20" s="9" t="s">
+      <c r="I36" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="37" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D37" s="8"/>
+      <c r="E37" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="K20" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="21" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D21" s="16"/>
-      <c r="E21" s="2" t="s">
+      <c r="H37" s="15"/>
+      <c r="I37" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="38" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D38" s="8"/>
+      <c r="E38" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="H38" s="15"/>
+      <c r="I38" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="39" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D39" s="11"/>
+      <c r="E39" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H39" s="16"/>
+      <c r="I39" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="40" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D40" s="5"/>
+      <c r="E40" s="6"/>
+    </row>
+    <row r="41" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D41" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F41" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="42" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D42" s="8"/>
+      <c r="E42" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F42" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="43" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D43" s="8"/>
+      <c r="E43" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="44" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D44" s="8"/>
+      <c r="E44" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="45" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D45" s="8"/>
+      <c r="E45" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="46" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D46" s="8"/>
+      <c r="E46" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="47" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D47" s="8"/>
+      <c r="E47" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="48" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D48" s="8"/>
+      <c r="E48" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="49" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D49" s="8"/>
+      <c r="E49" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="J21" s="9"/>
-      <c r="K21" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="22" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D22" s="16"/>
-      <c r="E22" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J22" s="9"/>
-      <c r="K22" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="23" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D23" s="16"/>
-      <c r="E23" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J23" s="9"/>
-      <c r="K23" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="24" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D24" s="16"/>
-      <c r="E24" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J24" s="9"/>
-      <c r="K24" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="25" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D25" s="13"/>
-      <c r="E25" s="14"/>
-    </row>
-    <row r="26" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D26" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J26" s="10" t="s">
+    </row>
+    <row r="50" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D50" s="8"/>
+      <c r="E50" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D51" s="8"/>
+      <c r="E51" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D52" s="8"/>
+      <c r="E52" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="K26" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="27" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D27" s="7"/>
-      <c r="E27" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J27" s="11"/>
-      <c r="K27" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="28" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D28" s="7"/>
-      <c r="E28" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J28" s="11"/>
-      <c r="K28" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="29" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D29" s="7"/>
-      <c r="E29" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J29" s="12"/>
-      <c r="K29" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="30" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D30" s="7"/>
-      <c r="E30" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="31" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D31" s="7"/>
-      <c r="E31" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J31" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="K31" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="32" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D32" s="7"/>
-      <c r="E32" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="J32" s="11"/>
-      <c r="K32" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="33" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D33" s="8"/>
-      <c r="E33" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="J33" s="11"/>
-      <c r="K33" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="34" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D34" s="13"/>
-      <c r="E34" s="14"/>
-      <c r="J34" s="12"/>
-      <c r="K34" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="35" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D35" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="36" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D36" s="7"/>
-      <c r="E36" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="J36" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="K36" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="37" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D37" s="7"/>
-      <c r="E37" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="J37" s="11"/>
-      <c r="K37" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="38" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D38" s="7"/>
-      <c r="E38" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="J38" s="11"/>
-      <c r="K38" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="39" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D39" s="8"/>
-      <c r="E39" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="J39" s="12"/>
-      <c r="K39" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="40" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D40" s="13"/>
-      <c r="E40" s="14"/>
-    </row>
-    <row r="41" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D41" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="42" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D42" s="7"/>
-      <c r="E42" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="43" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D43" s="7"/>
-      <c r="E43" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="44" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D44" s="7"/>
-      <c r="E44" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="45" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D45" s="7"/>
-      <c r="E45" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="46" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D46" s="7"/>
-      <c r="E46" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="47" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D47" s="7"/>
-      <c r="E47" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="48" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D48" s="7"/>
-      <c r="E48" s="2" t="s">
+    </row>
+    <row r="53" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D53" s="8"/>
+      <c r="E53" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="49" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D49" s="7"/>
-      <c r="E49" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="50" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D50" s="7"/>
-      <c r="E50" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="51" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D51" s="7"/>
-      <c r="E51" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="52" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D52" s="7"/>
-      <c r="E52" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="53" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D53" s="7"/>
-      <c r="E53" s="4" t="s">
+    <row r="54" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D54" s="8"/>
+      <c r="E54" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="54" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D54" s="7"/>
-      <c r="E54" s="4" t="s">
+    <row r="55" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D55" s="8"/>
+      <c r="E55" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="55" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D55" s="7"/>
-      <c r="E55" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="56" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D56" s="8"/>
+    <row r="56" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D56" s="11"/>
       <c r="E56" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D57" s="13"/>
-      <c r="E57" s="14"/>
-    </row>
-    <row r="58" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D58" s="6" t="s">
+    <row r="57" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D57" s="5"/>
+      <c r="E57" s="6"/>
+    </row>
+    <row r="58" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D58" s="7" t="s">
         <v>7</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="59" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D59" s="7"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="59" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D59" s="8"/>
       <c r="E59" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="60" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D60" s="7"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="60" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D60" s="8"/>
       <c r="E60" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="61" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D61" s="7"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="61" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D61" s="8"/>
       <c r="E61" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="62" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D62" s="8"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="62" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D62" s="11"/>
       <c r="E62" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="63" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D63" s="13"/>
-      <c r="E63" s="14"/>
-    </row>
-    <row r="64" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D64" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="63" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D63" s="5"/>
+      <c r="E63" s="6"/>
+    </row>
+    <row r="64" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D64" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="65" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D65" s="7"/>
+        <v>26</v>
+      </c>
+      <c r="F64" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="65" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D65" s="8"/>
       <c r="E65" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="66" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D66" s="7"/>
+      <c r="F65" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="66" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D66" s="8"/>
       <c r="E66" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="67" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D67" s="8"/>
+      <c r="E67" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="68" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D68" s="8"/>
+      <c r="E68" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="69" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D69" s="11"/>
+      <c r="E69" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="70" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D70" s="5"/>
+      <c r="E70" s="6"/>
+    </row>
+    <row r="71" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D71" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E71" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="67" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D67" s="7"/>
-      <c r="E67" s="2" t="s">
+      <c r="F71" s="18" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="72" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D72" s="12"/>
+      <c r="E72" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F72" s="18"/>
+    </row>
+    <row r="73" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D73" s="12"/>
+      <c r="E73" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F73" s="18"/>
+    </row>
+    <row r="74" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D74" s="12"/>
+      <c r="E74" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="75" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D75" s="12"/>
+      <c r="E75" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="76" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D76" s="12"/>
+      <c r="E76" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="77" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D77" s="12"/>
+      <c r="E77" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="68" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D68" s="7"/>
-      <c r="E68" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="69" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D69" s="8"/>
-      <c r="E69" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="70" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D70" s="13"/>
-      <c r="E70" s="14"/>
-    </row>
-    <row r="71" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D71" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="72" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D72" s="5"/>
-      <c r="E72" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="73" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D73" s="5"/>
-      <c r="E73" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="74" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D74" s="5"/>
-      <c r="E74" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="75" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D75" s="5"/>
-      <c r="E75" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="76" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D76" s="5"/>
-      <c r="E76" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="77" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D77" s="5"/>
-      <c r="E77" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="D19:D24"/>
-    <mergeCell ref="D41:D56"/>
+  <mergeCells count="26">
+    <mergeCell ref="F71:F73"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="F10:F11"/>
     <mergeCell ref="D71:D77"/>
-    <mergeCell ref="J6:J10"/>
-    <mergeCell ref="J14:J18"/>
-    <mergeCell ref="J20:J24"/>
-    <mergeCell ref="J26:J29"/>
-    <mergeCell ref="J31:J34"/>
-    <mergeCell ref="J36:J39"/>
+    <mergeCell ref="H6:H10"/>
+    <mergeCell ref="H14:H18"/>
+    <mergeCell ref="H20:H24"/>
+    <mergeCell ref="H26:H29"/>
+    <mergeCell ref="H31:H34"/>
+    <mergeCell ref="H36:H39"/>
     <mergeCell ref="D6:D17"/>
     <mergeCell ref="D26:D33"/>
     <mergeCell ref="D35:D39"/>
@@ -1509,6 +1608,13 @@
     <mergeCell ref="D25:E25"/>
     <mergeCell ref="D34:E34"/>
     <mergeCell ref="D40:E40"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="D19:D24"/>
+    <mergeCell ref="D41:D56"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
